--- a/data/japan_nuclear_plants.xlsx
+++ b/data/japan_nuclear_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D3A7B-ACA4-4F9D-95D6-B0DA469FC4F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F60294-FD38-4933-A657-3AD81AA02703}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{346F8C21-4059-4C9D-97EB-4E642935E06C}"/>
+    <workbookView xWindow="37890" yWindow="5040" windowWidth="13830" windowHeight="7170" xr2:uid="{346F8C21-4059-4C9D-97EB-4E642935E06C}"/>
   </bookViews>
   <sheets>
     <sheet name="IAEA_PRIS DATA" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>STOCK</t>
+  </si>
+  <si>
+    <t>(MW)</t>
+  </si>
+  <si>
+    <t>Adjusted Cap</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
   </si>
 </sst>
 </file>
@@ -493,6 +502,24 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -511,27 +538,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1517,7 +1526,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6797579E-CCE6-41A7-BF28-C8E064D4065E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1528,7 +1537,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10833100" cy="7861300"/>
+    <xdr:ext cx="10818519" cy="7843426"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1854,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33659EE-21DF-4D4B-A179-0AAE35DF5F7E}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,19 +1881,20 @@
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1893,37 +1903,43 @@
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="U1" t="s">
+      <c r="M1" s="18"/>
+      <c r="P1" t="s">
         <v>58</v>
       </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="18"/>
       <c r="J2" t="s">
         <v>61</v>
       </c>
@@ -1933,12 +1949,19 @@
       <c r="M2" t="s">
         <v>63</v>
       </c>
-      <c r="U2">
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2">
         <f>SUM(E3:E34)</f>
         <v>30899</v>
       </c>
+      <c r="R2">
+        <f>P2*0.9</f>
+        <v>27809.100000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
@@ -1969,21 +1992,21 @@
         <v>2034</v>
       </c>
       <c r="J3">
-        <f>U2-E3</f>
+        <f>P2-E3</f>
         <v>30119</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="15">
         <v>2034</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="15">
         <v>30119</v>
       </c>
       <c r="N3">
-        <f>M3/1000</f>
-        <v>30.119</v>
+        <f>M3*0.9/1000</f>
+        <v>27.107100000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -2017,18 +2040,18 @@
         <f>J3-E4</f>
         <v>29339</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="15">
         <v>2035</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="15">
         <v>29339</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N22" si="2">M4/1000</f>
-        <v>29.338999999999999</v>
+        <f t="shared" ref="N4:N22" si="2">M4*0.9/1000</f>
+        <v>26.405100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
@@ -2062,18 +2085,18 @@
         <f>J4-E5</f>
         <v>28279</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <v>2038</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="15">
         <v>28279</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>28.279</v>
+        <v>25.451100000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -2107,18 +2130,18 @@
         <f t="shared" ref="J6:J34" si="3">J5-E6</f>
         <v>27433</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <v>2043</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="15">
         <v>27433</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>27.433</v>
+        <v>24.689700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -2152,18 +2175,18 @@
         <f t="shared" si="3"/>
         <v>26603</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="16">
         <v>2044</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="16">
         <v>25773</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>25.773</v>
+        <v>23.195700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2197,18 +2220,18 @@
         <f t="shared" si="3"/>
         <v>25773</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="16">
         <v>2045</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="16">
         <v>23860</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>23.86</v>
+        <v>21.474</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2242,18 +2265,18 @@
         <f t="shared" si="3"/>
         <v>24706</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="16">
         <v>2046</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="16">
         <v>22752</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>22.751999999999999</v>
+        <v>20.476800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -2287,18 +2310,18 @@
         <f t="shared" si="3"/>
         <v>23860</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="16">
         <v>2047</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="16">
         <v>21696</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>21.696000000000002</v>
+        <v>19.526400000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
@@ -2332,18 +2355,18 @@
         <f t="shared" si="3"/>
         <v>22752</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="16">
         <v>2048</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="16">
         <v>20357</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>20.356999999999999</v>
+        <v>18.321300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -2377,18 +2400,18 @@
         <f t="shared" si="3"/>
         <v>21696</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="16">
         <v>2049</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="16">
         <v>19290</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>19.29</v>
+        <v>17.361000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2422,18 +2445,18 @@
         <f t="shared" si="3"/>
         <v>20907</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="16">
         <v>2050</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="16">
         <v>17673</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>17.672999999999998</v>
+        <v>15.905700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
@@ -2467,18 +2490,18 @@
         <f t="shared" si="3"/>
         <v>20357</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="16">
         <v>2051</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="16">
         <v>16546</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>16.545999999999999</v>
+        <v>14.891399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2512,18 +2535,18 @@
         <f t="shared" si="3"/>
         <v>19290</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="16">
         <v>2052</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="16">
         <v>14352</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>14.352</v>
+        <v>12.9168</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
@@ -2557,15 +2580,15 @@
         <f t="shared" si="3"/>
         <v>18223</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="16">
         <v>2053</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="16">
         <v>10561</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>10.561</v>
+        <v>9.5048999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
@@ -2602,15 +2625,15 @@
         <f t="shared" si="3"/>
         <v>17673</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="16">
         <v>2054</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="16">
         <v>8919</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>8.9190000000000005</v>
+        <v>8.0271000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2647,15 +2670,15 @@
         <f t="shared" si="3"/>
         <v>16546</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="16">
         <v>2056</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="16">
         <v>5162</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>5.1619999999999999</v>
+        <v>4.6458000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2692,15 +2715,15 @@
         <f t="shared" si="3"/>
         <v>15419</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="17">
         <v>2061</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="17">
         <v>4366</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>4.3659999999999997</v>
+        <v>3.9294000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
@@ -2737,15 +2760,15 @@
         <f t="shared" si="3"/>
         <v>14352</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="17">
         <v>2064</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="17">
         <v>3041</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>3.0409999999999999</v>
+        <v>2.7368999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
@@ -2782,15 +2805,15 @@
         <f t="shared" si="3"/>
         <v>13847</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="17">
         <v>2065</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="17">
         <v>866</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>0.86599999999999999</v>
+        <v>0.77939999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
@@ -2827,10 +2850,10 @@
         <f t="shared" si="3"/>
         <v>12755</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="17">
         <v>2069</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="17">
         <v>0</v>
       </c>
       <c r="N22">
@@ -3224,25 +3247,25 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="13">
         <v>866</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="13">
         <v>912</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="14">
         <v>39892</v>
       </c>
       <c r="H34">
